--- a/01_Documentacion/1. Mapa de procesos/G2_MAPA_PROC_V4.xlsx
+++ b/01_Documentacion/1. Mapa de procesos/G2_MAPA_PROC_V4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\7. Septimo Semestre\4. Aseguramiento de Calidad\3. Repositorio\2567_G2_ACSW\01_Documentacion\1. Mapa de procesos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317D88CC-60C3-4B50-8FB0-9CCE199A26B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C990029-AD6B-44B0-96BA-315BF666611B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4997B183-6BA5-427C-8615-A6F9FCD80629}"/>
   </bookViews>
@@ -6833,6 +6833,40 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9. Ejecutar las pruebas </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
@@ -16322,7 +16356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8B49B5-0ECE-4555-B935-30B61D398401}">
   <dimension ref="C2:AF103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W97" zoomScale="97" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="X17" zoomScale="97" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="T111" sqref="T111"/>
     </sheetView>
   </sheetViews>
@@ -16601,23 +16635,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6130c624-bec2-48a0-a4e0-dd56eb2f89c2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004E0ED12E3C12264BAAEFDDE265025732" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="2d362b695837bcdd23b5ff1cf77f037c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6130c624-bec2-48a0-a4e0-dd56eb2f89c2" xmlns:ns4="42803d71-5b3b-4609-9095-d55998e15ed0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d4b59103f32c4b737153175474b0bd2f" ns3:_="" ns4:_="">
     <xsd:import namespace="6130c624-bec2-48a0-a4e0-dd56eb2f89c2"/>
@@ -16812,10 +16829,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6130c624-bec2-48a0-a4e0-dd56eb2f89c2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DF3A800-A648-4ED0-9604-A7A2B88DC5AA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA509352-82F5-4E08-96D0-34C8F7BC5A84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6130c624-bec2-48a0-a4e0-dd56eb2f89c2"/>
+    <ds:schemaRef ds:uri="42803d71-5b3b-4609-9095-d55998e15ed0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16838,20 +16883,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA509352-82F5-4E08-96D0-34C8F7BC5A84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DF3A800-A648-4ED0-9604-A7A2B88DC5AA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6130c624-bec2-48a0-a4e0-dd56eb2f89c2"/>
-    <ds:schemaRef ds:uri="42803d71-5b3b-4609-9095-d55998e15ed0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>